--- a/contour_experiment_runsheet_CCD_with_optima.xlsx
+++ b/contour_experiment_runsheet_CCD_with_optima.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Ikastekoa\5\NAEX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45DA564-E9E7-4B09-86AC-DB89E18953EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC69C10-B3EC-4131-BEAF-90102C73EB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/contour_experiment_runsheet_CCD_with_optima.xlsx
+++ b/contour_experiment_runsheet_CCD_with_optima.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Ikastekoa\5\NAEX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC69C10-B3EC-4131-BEAF-90102C73EB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8ABEAF-3EB3-4D3D-BF19-D9418A890449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -219,7 +219,7 @@
     <t>A,Normal,0.0,High,Low,242,1,20,3,526.4218,16,Best-guess low-speed optimum (confirm) (rep 3/3),</t>
   </si>
   <si>
-    <t>A,Mid(5.25g),22.5,Mid(92.5cm),Low,203,1,3,1,414.304,25,CCD point (B=0; C=0; D=0) at Low speed,</t>
+    <t>A,Mid(5.25g),22.5,Mid(92.5cm),Low,203,1,3,1,414.3042,5,CCD point (B=0; C=0; D=0) at Low speed,</t>
   </si>
 </sst>
 </file>
